--- a/20181121_BENCHMARK/doc/Benchmark_graphs.xlsx
+++ b/20181121_BENCHMARK/doc/Benchmark_graphs.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="data (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -34357,7 +34357,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -36709,8 +36708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
